--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col3a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ddr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2160.16680585383</v>
+        <v>6.003292333333334</v>
       </c>
       <c r="H2">
-        <v>2160.16680585383</v>
+        <v>18.009877</v>
       </c>
       <c r="I2">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="J2">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N2">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P2">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q2">
-        <v>483.5446610552385</v>
+        <v>1.658779710110556</v>
       </c>
       <c r="R2">
-        <v>483.5446610552385</v>
+        <v>14.929017390995</v>
       </c>
       <c r="S2">
-        <v>0.01904492515103753</v>
+        <v>5.475382253677321E-05</v>
       </c>
       <c r="T2">
-        <v>0.01904492515103753</v>
+        <v>5.47538225367732E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2160.16680585383</v>
+        <v>6.003292333333334</v>
       </c>
       <c r="H3">
-        <v>2160.16680585383</v>
+        <v>18.009877</v>
       </c>
       <c r="I3">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="J3">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N3">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P3">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q3">
-        <v>4592.518416654038</v>
+        <v>13.09196991504611</v>
       </c>
       <c r="R3">
-        <v>4592.518416654038</v>
+        <v>117.827729235415</v>
       </c>
       <c r="S3">
-        <v>0.1808812640161607</v>
+        <v>0.0004321462295541536</v>
       </c>
       <c r="T3">
-        <v>0.1808812640161607</v>
+        <v>0.0004321462295541535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2160.16680585383</v>
+        <v>6.003292333333334</v>
       </c>
       <c r="H4">
-        <v>2160.16680585383</v>
+        <v>18.009877</v>
       </c>
       <c r="I4">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="J4">
-        <v>0.9600385577209222</v>
+        <v>0.002628468435338583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.93403878525389</v>
+        <v>10.807288</v>
       </c>
       <c r="N4">
-        <v>8.93403878525389</v>
+        <v>32.421864</v>
       </c>
       <c r="O4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="P4">
-        <v>0.7917519170877764</v>
+        <v>0.8147590263802398</v>
       </c>
       <c r="Q4">
-        <v>19299.01402611613</v>
+        <v>64.87930919452535</v>
       </c>
       <c r="R4">
-        <v>19299.01402611613</v>
+        <v>583.913782750728</v>
       </c>
       <c r="S4">
-        <v>0.760112368553724</v>
+        <v>0.002141568383247656</v>
       </c>
       <c r="T4">
-        <v>0.760112368553724</v>
+        <v>0.002141568383247656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.9165772364755</v>
+        <v>2169.811686</v>
       </c>
       <c r="H5">
-        <v>89.9165772364755</v>
+        <v>6509.435058</v>
       </c>
       <c r="I5">
-        <v>0.03996144227907788</v>
+        <v>0.9500256210433516</v>
       </c>
       <c r="J5">
-        <v>0.03996144227907788</v>
+        <v>0.9500256210433515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.223845982516203</v>
+        <v>0.2763116666666667</v>
       </c>
       <c r="N5">
-        <v>0.223845982516203</v>
+        <v>0.828935</v>
       </c>
       <c r="O5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="P5">
-        <v>0.01983766693313768</v>
+        <v>0.02083107478128044</v>
       </c>
       <c r="Q5">
-        <v>20.12746457599291</v>
+        <v>599.5442833114701</v>
       </c>
       <c r="R5">
-        <v>20.12746457599291</v>
+        <v>5395.89854980323</v>
       </c>
       <c r="S5">
-        <v>0.0007927417821001532</v>
+        <v>0.01979005475608645</v>
       </c>
       <c r="T5">
-        <v>0.0007927417821001532</v>
+        <v>0.01979005475608644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.9165772364755</v>
+        <v>2169.811686</v>
       </c>
       <c r="H6">
-        <v>89.9165772364755</v>
+        <v>6509.435058</v>
       </c>
       <c r="I6">
-        <v>0.03996144227907788</v>
+        <v>0.9500256210433516</v>
       </c>
       <c r="J6">
-        <v>0.03996144227907788</v>
+        <v>0.9500256210433515</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1260017532946</v>
+        <v>2.180798333333333</v>
       </c>
       <c r="N6">
-        <v>2.1260017532946</v>
+        <v>6.542395</v>
       </c>
       <c r="O6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="P6">
-        <v>0.188410415979086</v>
+        <v>0.1644098988384798</v>
       </c>
       <c r="Q6">
-        <v>191.1628008549962</v>
+        <v>4731.921708475989</v>
       </c>
       <c r="R6">
-        <v>191.1628008549962</v>
+        <v>42587.29537628391</v>
       </c>
       <c r="S6">
-        <v>0.007529151962925296</v>
+        <v>0.1561936162497014</v>
       </c>
       <c r="T6">
-        <v>0.007529151962925296</v>
+        <v>0.1561936162497013</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2169.811686</v>
+      </c>
+      <c r="H7">
+        <v>6509.435058</v>
+      </c>
+      <c r="I7">
+        <v>0.9500256210433516</v>
+      </c>
+      <c r="J7">
+        <v>0.9500256210433515</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.807288</v>
+      </c>
+      <c r="N7">
+        <v>32.421864</v>
+      </c>
+      <c r="O7">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="P7">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="Q7">
+        <v>23449.77979636757</v>
+      </c>
+      <c r="R7">
+        <v>211048.0181673081</v>
+      </c>
+      <c r="S7">
+        <v>0.7740419500375638</v>
+      </c>
+      <c r="T7">
+        <v>0.7740419500375637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>108.1357256666667</v>
+      </c>
+      <c r="H8">
+        <v>324.407177</v>
+      </c>
+      <c r="I8">
+        <v>0.04734591052130986</v>
+      </c>
+      <c r="J8">
+        <v>0.04734591052130985</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2763116666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.828935</v>
+      </c>
+      <c r="O8">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="P8">
+        <v>0.02083107478128044</v>
+      </c>
+      <c r="Q8">
+        <v>29.87916258516611</v>
+      </c>
+      <c r="R8">
+        <v>268.912463266495</v>
+      </c>
+      <c r="S8">
+        <v>0.000986266202657218</v>
+      </c>
+      <c r="T8">
+        <v>0.0009862662026572178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>89.9165772364755</v>
-      </c>
-      <c r="H7">
-        <v>89.9165772364755</v>
-      </c>
-      <c r="I7">
-        <v>0.03996144227907788</v>
-      </c>
-      <c r="J7">
-        <v>0.03996144227907788</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.93403878525389</v>
-      </c>
-      <c r="N7">
-        <v>8.93403878525389</v>
-      </c>
-      <c r="O7">
-        <v>0.7917519170877764</v>
-      </c>
-      <c r="P7">
-        <v>0.7917519170877764</v>
-      </c>
-      <c r="Q7">
-        <v>803.3181884679492</v>
-      </c>
-      <c r="R7">
-        <v>803.3181884679492</v>
-      </c>
-      <c r="S7">
-        <v>0.03163954853405243</v>
-      </c>
-      <c r="T7">
-        <v>0.03163954853405243</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>108.1357256666667</v>
+      </c>
+      <c r="H9">
+        <v>324.407177</v>
+      </c>
+      <c r="I9">
+        <v>0.04734591052130986</v>
+      </c>
+      <c r="J9">
+        <v>0.04734591052130985</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.180798333333333</v>
+      </c>
+      <c r="N9">
+        <v>6.542395</v>
+      </c>
+      <c r="O9">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="P9">
+        <v>0.1644098988384798</v>
+      </c>
+      <c r="Q9">
+        <v>235.8222103076572</v>
+      </c>
+      <c r="R9">
+        <v>2122.399892768915</v>
+      </c>
+      <c r="S9">
+        <v>0.007784136359224269</v>
+      </c>
+      <c r="T9">
+        <v>0.007784136359224267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>108.1357256666667</v>
+      </c>
+      <c r="H10">
+        <v>324.407177</v>
+      </c>
+      <c r="I10">
+        <v>0.04734591052130986</v>
+      </c>
+      <c r="J10">
+        <v>0.04734591052130985</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.807288</v>
+      </c>
+      <c r="N10">
+        <v>32.421864</v>
+      </c>
+      <c r="O10">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="P10">
+        <v>0.8147590263802398</v>
+      </c>
+      <c r="Q10">
+        <v>1168.653930368659</v>
+      </c>
+      <c r="R10">
+        <v>10517.88537331793</v>
+      </c>
+      <c r="S10">
+        <v>0.03857550795942837</v>
+      </c>
+      <c r="T10">
+        <v>0.03857550795942837</v>
       </c>
     </row>
   </sheetData>
